--- a/Final Fase 2/Evidencias Proyecto/Documentación SCRUM_/Priorizacion de H.U/Priorizacion_Historias_Usuario_NMCollection.xlsx
+++ b/Final Fase 2/Evidencias Proyecto/Documentación SCRUM_/Priorizacion de H.U/Priorizacion_Historias_Usuario_NMCollection.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,15 @@
     <t>Sprint 1</t>
   </si>
   <si>
+    <t>Como usuario quiero poder tener acceso a tener mi propio carrito de compras para poder seleccionar las cantidades de productos que necesito.</t>
+  </si>
+  <si>
+    <t>Carrito de compras</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
     <t>NM-3</t>
   </si>
   <si>
@@ -57,6 +66,9 @@
     <t>Iniciar Sesión</t>
   </si>
   <si>
+    <t>Como usuario quiero poder añadir mis productos al carro.</t>
+  </si>
+  <si>
     <t>NM-4</t>
   </si>
   <si>
@@ -66,6 +78,9 @@
     <t>Registrarse</t>
   </si>
   <si>
+    <t>Como usuario quiero comprar-pagar productos.</t>
+  </si>
+  <si>
     <t>NM-7</t>
   </si>
   <si>
@@ -75,6 +90,12 @@
     <t>Pujas Subastas</t>
   </si>
   <si>
+    <t>Como usuario quiero recuperar mi contraseña en caso de olvidarla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperar contraseña </t>
+  </si>
+  <si>
     <t>NM-8</t>
   </si>
   <si>
@@ -87,6 +108,12 @@
     <t>Media</t>
   </si>
   <si>
+    <t>Como administrador quiero editar los productos del catálogo.</t>
+  </si>
+  <si>
+    <t>Gestionar Catalogo</t>
+  </si>
+  <si>
     <t>NM-11</t>
   </si>
   <si>
@@ -96,6 +123,12 @@
     <t>Chat de Subastas</t>
   </si>
   <si>
+    <t>Como administrador o diseñador quiero poder gestionar envíos de pedidos.</t>
+  </si>
+  <si>
+    <t>Gestionar pedidos</t>
+  </si>
+  <si>
     <t>NM-12</t>
   </si>
   <si>
@@ -105,6 +138,12 @@
     <t>Gestionar Pedidos</t>
   </si>
   <si>
+    <t>Como usuario quiero agregar QR a mis cartas con descripciones.</t>
+  </si>
+  <si>
+    <t>QR en Cartas</t>
+  </si>
+  <si>
     <t>NM-13</t>
   </si>
   <si>
@@ -117,6 +156,12 @@
     <t>Baja</t>
   </si>
   <si>
+    <t>Como usuario quiero que mi carta sea escaneable con NFC.</t>
+  </si>
+  <si>
+    <t>tecnologia NFC</t>
+  </si>
+  <si>
     <t>NM-15</t>
   </si>
   <si>
@@ -126,6 +171,9 @@
     <t>Dashboard Administrativos</t>
   </si>
   <si>
+    <t>Como usuario quiero que se redirija al escanear el QR.</t>
+  </si>
+  <si>
     <t>NM-16</t>
   </si>
   <si>
@@ -135,6 +183,12 @@
     <t>Agregar Plantillas de Diseño</t>
   </si>
   <si>
+    <t>Como usuario quiero jugar el minijuego con mis cartas coleccionables.</t>
+  </si>
+  <si>
+    <t>Minijuego Movil</t>
+  </si>
+  <si>
     <t>NM-20</t>
   </si>
   <si>
@@ -144,6 +198,9 @@
     <t>Panel de Administración</t>
   </si>
   <si>
+    <t>Como usuario quiero que mi carta NFC sea transferida porque logre llegar a un acuerdo</t>
+  </si>
+  <si>
     <t>NM-21</t>
   </si>
   <si>
@@ -153,6 +210,9 @@
     <t>Reportes de Previsualización</t>
   </si>
   <si>
+    <t>Como usuario quiero poder seguir agregando productos al carrito de compras de mi pedido posterior a mi compra NFC</t>
+  </si>
+  <si>
     <t>NM-25</t>
   </si>
   <si>
@@ -160,6 +220,12 @@
   </si>
   <si>
     <t>Gestionar Subastas</t>
+  </si>
+  <si>
+    <t>Como usuario quiero recibir un voucher de compra para tener un comprobante de mi compra</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
   </si>
 </sst>
 </file>
@@ -182,7 +248,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -231,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -243,6 +308,9 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,9 +529,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="16.43"/>
+    <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="8" width="8.71"/>
+    <col customWidth="1" min="9" max="9" width="22.71"/>
+    <col customWidth="1" min="10" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,6 +552,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -499,209 +584,404 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
